--- a/runningArea/30Missions_2.xlsx
+++ b/runningArea/30Missions_2.xlsx
@@ -8641,7 +8641,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -8658,7 +8658,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -8675,7 +8675,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>41</v>
@@ -8692,7 +8692,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>18</v>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B37">
         <v>37</v>
@@ -8743,7 +8743,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8760,7 +8760,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B39">
         <v>47</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B40">
         <v>49</v>
@@ -8794,7 +8794,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -8845,7 +8845,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <v>24</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B46">
         <v>32</v>
@@ -8896,7 +8896,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8913,7 +8913,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B48">
         <v>45</v>
@@ -8930,7 +8930,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <v>26</v>
@@ -8947,7 +8947,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8964,7 +8964,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51">
         <v>39</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8998,7 +8998,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>21</v>
@@ -9015,7 +9015,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -9032,7 +9032,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55">
         <v>31</v>
@@ -9049,7 +9049,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -9066,7 +9066,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -9083,7 +9083,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58">
         <v>30</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B60">
         <v>19</v>
@@ -9134,7 +9134,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -9151,7 +9151,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62">
         <v>29</v>
@@ -9168,7 +9168,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B63">
         <v>46</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -9219,7 +9219,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -9253,7 +9253,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B68">
         <v>44</v>
@@ -9270,7 +9270,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -9287,7 +9287,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70">
         <v>20</v>
@@ -9304,7 +9304,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -9321,7 +9321,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B72">
         <v>22</v>
